--- a/data/zerforschen_regression.xlsx
+++ b/data/zerforschen_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A6F444-14DF-8D47-A7B4-A087BD4CF6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1901CC5-E4C8-B74F-81D0-DC970ED4E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="5800" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16340" yWindow="1760" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
   <si>
     <t>iodine</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>KIO3</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
 </sst>
 </file>
@@ -360,260 +363,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="400" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
       <c r="B23">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
       <c r="B24">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
       <c r="B25">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
       <c r="B26">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
       <c r="B27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
       <c r="B28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
       <c r="B29">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
       <c r="B30">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
       <c r="B31">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
       <c r="B35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
       <c r="B37">
         <v>2</v>
+      </c>
+      <c r="C37">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/zerforschen_regression.xlsx
+++ b/data/zerforschen_regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1901CC5-E4C8-B74F-81D0-DC970ED4E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C34CCEE-AF56-CB4E-90E2-5F747C8781DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16340" yWindow="1760" windowWidth="15880" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>460</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
